--- a/QUL/GM2/GM2_分析.xlsx
+++ b/QUL/GM2/GM2_分析.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s830s\OneDrive\文件\github\FIH tool整合\FIH-tool\QUL\GM2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{450FDF28-4689-453E-BAE6-5528FCFBDB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9A623B51-0597-4066-82D9-A3872BA6B80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3516" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4212" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Golden_LSC" sheetId="1" r:id="rId1"/>
@@ -1610,7 +1610,7 @@
                   <c:v>3.3923290000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9509599999999998</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.5348899999999999</c:v>
@@ -1689,7 +1689,7 @@
                   <c:v>3.5865659999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2103250000000001</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.8012670000000002</c:v>
@@ -8488,8 +8488,7 @@
         <v>3.3923290000000001</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.9509599999999998</v>
+        <v>60</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -8589,8 +8588,7 @@
         <v>3.5865659999999999</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.2103250000000001</v>
+        <v>60</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -16700,7 +16698,7 @@
       </c>
       <c r="AF175" s="1">
         <f t="shared" ca="1" si="78"/>
-        <v>2.9509599999999998</v>
+        <v>60</v>
       </c>
       <c r="AG175" s="1">
         <f t="shared" ca="1" si="79"/>
@@ -17261,7 +17259,7 @@
       </c>
       <c r="AF192" s="1">
         <f t="shared" ca="1" si="78"/>
-        <v>3.2103250000000001</v>
+        <v>60</v>
       </c>
       <c r="AG192" s="1">
         <f t="shared" ca="1" si="79"/>

--- a/QUL/GM2/GM2_分析.xlsx
+++ b/QUL/GM2/GM2_分析.xlsx
@@ -5,12 +5,12 @@
   <workbookPr dateCompatibility="0" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s830s\OneDrive\文件\github\FIH tool整合\FIH-tool\QUL\GM2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuting\Documents\github\FIH-tool\QUL\GM2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9A623B51-0597-4066-82D9-A3872BA6B80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AC20D4E1-CE0B-4027-8241-DF5B0264B89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4212" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="3336" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Golden_LSC" sheetId="1" r:id="rId1"/>
@@ -1610,7 +1610,7 @@
                   <c:v>3.3923290000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>2.9509599999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.5348899999999999</c:v>
@@ -1689,7 +1689,7 @@
                   <c:v>3.5865659999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>3.2103250000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.8012670000000002</c:v>
@@ -7437,8 +7437,8 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A2:AJ226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -8488,7 +8488,8 @@
         <v>3.3923290000000001</v>
       </c>
       <c r="H14" s="2">
-        <v>60</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.9509599999999998</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -8588,7 +8589,8 @@
         <v>3.5865659999999999</v>
       </c>
       <c r="H15" s="2">
-        <v>60</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3.2103250000000001</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -16698,7 +16700,7 @@
       </c>
       <c r="AF175" s="1">
         <f t="shared" ca="1" si="78"/>
-        <v>60</v>
+        <v>2.9509599999999998</v>
       </c>
       <c r="AG175" s="1">
         <f t="shared" ca="1" si="79"/>
@@ -17259,7 +17261,7 @@
       </c>
       <c r="AF192" s="1">
         <f t="shared" ca="1" si="78"/>
-        <v>60</v>
+        <v>3.2103250000000001</v>
       </c>
       <c r="AG192" s="1">
         <f t="shared" ca="1" si="79"/>

--- a/QUL/GM2/GM2_分析.xlsx
+++ b/QUL/GM2/GM2_分析.xlsx
@@ -5,12 +5,12 @@
   <workbookPr dateCompatibility="0" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuting\Documents\github\FIH-tool\QUL\GM2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s830s\OneDrive\文件\github\FIH tool整合\FIH-tool\QUL\GM2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AC20D4E1-CE0B-4027-8241-DF5B0264B89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{82CA2EA3-D6EC-4568-9F84-3D6A022412CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="3336" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4908" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Golden_LSC" sheetId="1" r:id="rId1"/>

--- a/QUL/GM2/GM2_分析.xlsx
+++ b/QUL/GM2/GM2_分析.xlsx
@@ -5,12 +5,12 @@
   <workbookPr dateCompatibility="0" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s830s\OneDrive\文件\github\FIH tool整合\FIH-tool\QUL\GM2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s830s\OneDrive\文件\github\FIH-tool整合\FIH-tool\QUL\GM2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{82CA2EA3-D6EC-4568-9F84-3D6A022412CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{26C988D5-C6CB-4279-BDA7-1C85765865DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4908" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Golden_LSC" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="6" uniqueCount="6">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="4" uniqueCount="4">
   <si>
     <t>r_gain</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -50,12 +50,6 @@
   <si>
     <t>b_gain</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:/Users/s830s/OneDrive/文件/github/FIH tool整合/FIH-tool/QUL/OTPgolden2/input.txt</t>
-  </si>
-  <si>
-    <t>C:/Users/s830s/OneDrive/文件/github/FIH tool整合/FIH-tool/QUL/OTPgolden2/123.txt</t>
   </si>
 </sst>
 </file>
@@ -223,7 +217,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,6 +395,30 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -648,7 +666,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -656,6 +674,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7006,134 +7036,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>46183</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>565728</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>69273</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="[0]!loadTXT" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="矩形: 圓角 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA453C36-76CE-49AC-B83F-6C17419DA455}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1" y="46183"/>
-          <a:ext cx="2447636" cy="438726"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50%"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1002">
-          <a:schemeClr val="dk2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="2400"/>
-            <a:t>Load TXT</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>25401</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>25401</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>611910</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>80819</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="[0]!outputTXT" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="矩形: 圓角 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCBDDC48-F862-41AD-8E06-5B75C06F255C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19110037" y="25401"/>
-          <a:ext cx="2468418" cy="471054"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50%"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1002">
-          <a:schemeClr val="dk2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="2400"/>
-            <a:t>Output TXT</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7435,10 +7337,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A2:AJ226"/>
+  <dimension ref="A4:AI226"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -7448,15 +7350,7 @@
     <col min="34" max="35" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -7472,7 +7366,7 @@
       <c r="F4" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="6">
         <f t="shared" ref="G4:H16" ca="1" si="0">INDIRECT("A"&amp;(17*ROW(1:1)+ROW($A$4)-17+IF(COLUMN(A:A)&gt;17,50000,COLUMN(A:A)-1)))</f>
         <v>0</v>
       </c>
@@ -7536,7 +7430,7 @@
         <f t="shared" ref="V4:V16" ca="1" si="14">INDIRECT("A"&amp;(17*ROW(1:1)+ROW($A$4)-17+IF(COLUMN(P:P)&gt;17,50000,COLUMN(P:P)-1)))</f>
         <v>3.379038</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W4" s="6">
         <f t="shared" ref="W4:W16" ca="1" si="15">INDIRECT("A"&amp;(17*ROW(1:1)+ROW($A$4)-17+IF(COLUMN(Q:Q)&gt;17,50000,COLUMN(Q:Q)-1)))</f>
         <v>3.6704439999999998</v>
       </c>
@@ -7560,7 +7454,7 @@
         <v>3.2033710000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3.4525000000000001</v>
       </c>
@@ -7661,7 +7555,7 @@
         <v>2.9767299999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3.1194109999999999</v>
       </c>
@@ -7763,7 +7657,7 @@
         <v>2.6914189999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2.7788040000000001</v>
       </c>
@@ -7864,7 +7758,7 @@
         <v>2.3950809999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2.4946169999999999</v>
       </c>
@@ -7965,7 +7859,7 @@
         <v>2.1468020000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2.299048</v>
       </c>
@@ -7978,6 +7872,7 @@
       <c r="D9" s="1">
         <v>1.9891799999999999</v>
       </c>
+      <c r="E9" s="1"/>
       <c r="G9" s="2">
         <f t="shared" ca="1" si="16"/>
         <v>2.9345659999999998</v>
@@ -8066,7 +7961,7 @@
         <v>1.9891799999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2.1636600000000001</v>
       </c>
@@ -8167,7 +8062,7 @@
         <v>1.881432</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2.0788950000000002</v>
       </c>
@@ -8268,7 +8163,7 @@
         <v>1.822187</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2.0470320000000002</v>
       </c>
@@ -8369,7 +8264,7 @@
         <v>1.801248</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2.0667680000000002</v>
       </c>
@@ -8470,7 +8365,7 @@
         <v>1.8148629999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2.1445029999999998</v>
       </c>
@@ -8571,7 +8466,7 @@
         <v>1.8727819999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2.2661129999999998</v>
       </c>
@@ -8672,7 +8567,7 @@
         <v>1.971106</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2.4530799999999999</v>
       </c>
@@ -8685,7 +8580,7 @@
       <c r="D16" s="1">
         <v>2.1302140000000001</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="6">
         <f t="shared" ca="1" si="16"/>
         <v>3.764011</v>
       </c>
@@ -8749,7 +8644,7 @@
         <f t="shared" ca="1" si="14"/>
         <v>3.4048080000000001</v>
       </c>
-      <c r="W16" s="2">
+      <c r="W16" s="6">
         <f t="shared" ca="1" si="15"/>
         <v>3.6994099999999999</v>
       </c>
@@ -8822,7 +8717,7 @@
       <c r="F18" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="4">
         <f ca="1">INDIRECT("B"&amp;(17*ROW(1:1)+ROW($A$4)-17+IF(COLUMN(A:A)&gt;17,50000,COLUMN(A:A)-1)))</f>
         <v>3.3917359999999999</v>
       </c>
@@ -8886,7 +8781,7 @@
         <f t="shared" ref="V18:V30" ca="1" si="35">INDIRECT("B"&amp;(17*ROW(1:1)+ROW($A$4)-17+IF(COLUMN(P:P)&gt;17,50000,COLUMN(P:P)-1)))</f>
         <v>3.0712920000000001</v>
       </c>
-      <c r="W18" s="2">
+      <c r="W18" s="4">
         <f t="shared" ref="W18:W30" ca="1" si="36">INDIRECT("B"&amp;(17*ROW(1:1)+ROW($A$4)-17+IF(COLUMN(Q:Q)&gt;17,50000,COLUMN(Q:Q)-1)))</f>
         <v>3.3766880000000001</v>
       </c>
@@ -10034,7 +9929,7 @@
       <c r="D30" s="1">
         <v>1.5974790000000001</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="4">
         <f t="shared" ca="1" si="37"/>
         <v>3.469309</v>
       </c>
@@ -10098,7 +9993,7 @@
         <f t="shared" ca="1" si="35"/>
         <v>3.161591</v>
       </c>
-      <c r="W30" s="2">
+      <c r="W30" s="4">
         <f t="shared" ca="1" si="36"/>
         <v>3.467371</v>
       </c>
@@ -10188,7 +10083,7 @@
       <c r="F32" t="s">
         <v>2</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="3">
         <f ca="1">INDIRECT("C"&amp;(17*ROW(1:1)+ROW($A$4)-17+IF(COLUMN(A:A)&gt;17,50000,COLUMN(A:A)-1)))</f>
         <v>3.3891650000000002</v>
       </c>
@@ -10252,7 +10147,7 @@
         <f t="shared" ca="1" si="38"/>
         <v>3.09321</v>
       </c>
-      <c r="W32" s="2">
+      <c r="W32" s="3">
         <f t="shared" ca="1" si="38"/>
         <v>3.3988339999999999</v>
       </c>
@@ -11400,7 +11295,7 @@
       <c r="D44" s="1">
         <v>1.464213</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="3">
         <f t="shared" ca="1" si="39"/>
         <v>3.446421</v>
       </c>
@@ -11464,7 +11359,7 @@
         <f t="shared" ca="1" si="54"/>
         <v>3.148336</v>
       </c>
-      <c r="W44" s="2">
+      <c r="W44" s="3">
         <f t="shared" ca="1" si="55"/>
         <v>3.4531170000000002</v>
       </c>
@@ -11554,7 +11449,7 @@
       <c r="F46" t="s">
         <v>3</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="5">
         <f ca="1">INDIRECT("D"&amp;(17*ROW(1:1)+ROW($A$4)-17+IF(COLUMN(A:A)&gt;17,50000,COLUMN(A:A)-1)))</f>
         <v>3.2033710000000002</v>
       </c>
@@ -11618,7 +11513,7 @@
         <f t="shared" ca="1" si="56"/>
         <v>2.9419439999999999</v>
       </c>
-      <c r="W46" s="2">
+      <c r="W46" s="5">
         <f t="shared" ca="1" si="56"/>
         <v>3.2155580000000001</v>
       </c>
@@ -12766,7 +12661,7 @@
       <c r="D58" s="1">
         <v>1.7953330000000001</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G58" s="5">
         <f t="shared" ca="1" si="57"/>
         <v>3.2760530000000001</v>
       </c>
@@ -12830,7 +12725,7 @@
         <f t="shared" ca="1" si="72"/>
         <v>3.0259019999999999</v>
       </c>
-      <c r="W58" s="2">
+      <c r="W58" s="5">
         <f t="shared" ca="1" si="73"/>
         <v>0</v>
       </c>

--- a/QUL/GM2/GM2_分析.xlsx
+++ b/QUL/GM2/GM2_分析.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s830s\OneDrive\文件\github\FIH-tool整合\FIH-tool\QUL\GM2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{26C988D5-C6CB-4279-BDA7-1C85765865DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2A22897A-263F-4E3D-8CC1-7107EAC23FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Golden_LSC" sheetId="1" r:id="rId1"/>
